--- a/Formato-masivo-nombre-contactos.xlsx
+++ b/Formato-masivo-nombre-contactos.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="josesantiz-dev"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\envio-whatsapp-infinity-academy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16379D8B-18E2-4B62-85FF-E7731476281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="18000" windowHeight="12630" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1682393934" val="1050" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
@@ -23,15 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Nombre</t>
-  </si>
-  <si>
-    <t>ApellidoPaterno</t>
-  </si>
-  <si>
-    <t>ApellidoMaterno</t>
   </si>
   <si>
     <t>Telefono</t>
@@ -40,136 +39,58 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1682393934" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1682393934" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1682393934" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1682393934" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1682393934"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1682393934"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1682393934" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -434,51 +355,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.567568" defaultRowHeight="13.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.783784" customWidth="1" style="0"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1682393934" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" useFirstPageNumber="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup fitToWidth="0" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Página &amp;P</oddFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1682393934" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1682393934" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
